--- a/接口文档/商品api/类目接口_运营端.xlsx
+++ b/接口文档/商品api/类目接口_运营端.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" activeTab="2"/>
+    <workbookView windowWidth="21495" windowHeight="10350" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="查看类目接口" sheetId="6" r:id="rId6"/>
     <sheet name="类目列表接口" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>商品类目接口
 版本：1.0
@@ -104,7 +104,7 @@
     <t>请求示例：</t>
   </si>
   <si>
-    <t>[{"name":"手机通a","pid":"-1","sort":"1"},{"name":"手机通b","pid":"-1","sort":"2"}]</t>
+    <t>[{"name":"手机通a","pid":"-1","sort":"1","img_url":"http://img1"},{"name":"手机通b","pid":"-1","sort":"2",,"img_url":"http://img1"}]</t>
   </si>
   <si>
     <t>响应参数：</t>
@@ -123,7 +123,7 @@
     <t>http://192.168.1.120/api/catalog_mgr/catalog/edit</t>
   </si>
   <si>
-    <t>[{"id":"1","name":"手机通a","sort":"1"},{"id":"2","name":"手机通b","sort":"2"}]</t>
+    <t>[{"id":"1","name":"手机通a","sort":"1","img_url"},{"id":"2","name":"手机通b","sort":"2","img_url"}]</t>
   </si>
   <si>
     <t xml:space="preserve">批量删除类目接口
@@ -259,6 +259,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">    "img_url":"http://img",</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -795,6 +798,9 @@
       </rPr>
       <t>,</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        "img_url":"http://img",</t>
   </si>
   <si>
     <r>
@@ -2193,8 +2199,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -2264,15 +2270,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2293,43 +2305,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -2338,22 +2313,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2361,7 +2341,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2376,9 +2356,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2389,26 +2415,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2454,7 +2460,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2466,25 +2532,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2496,49 +2616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2550,85 +2628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2762,26 +2768,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2801,17 +2807,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2850,15 +2865,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2867,10 +2873,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2879,16 +2885,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2898,125 +2904,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3082,6 +3088,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3496,186 +3505,186 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="7:14">
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="7:14">
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" spans="7:14">
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="7:14">
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="7:14">
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="7:14">
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
     </row>
     <row r="13" spans="7:14">
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
     </row>
     <row r="14" spans="7:14">
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="7:14">
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" spans="7:14">
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" spans="7:14">
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
     </row>
     <row r="18" spans="7:14">
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="19" spans="7:14">
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
     </row>
     <row r="20" spans="7:14">
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
     </row>
     <row r="21" spans="7:14">
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" spans="7:14">
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
     </row>
     <row r="23" spans="7:14">
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
     </row>
     <row r="24" spans="7:14">
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3702,50 +3711,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="39">
+      <c r="A3" s="40">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="39">
+      <c r="A4" s="40">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="39">
+      <c r="A5" s="40">
         <v>4</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="39">
+      <c r="A6" s="40">
         <v>5</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="41" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3767,7 +3776,7 @@
   <sheetPr/>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
@@ -3847,7 +3856,7 @@
       </c>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:5">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -3865,12 +3874,12 @@
       <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" ht="17.1" customHeight="1" spans="1:5">
       <c r="A8" s="10" t="s">
@@ -3902,124 +3911,124 @@
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="13"/>
-      <c r="B12" s="32"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="13"/>
-      <c r="B13" s="32"/>
+      <c r="B13" s="33"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="22"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="33"/>
       <c r="E14" s="20"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="32"/>
+      <c r="B15" s="33"/>
       <c r="E15" s="20"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="32"/>
+      <c r="B17" s="33"/>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="32"/>
+      <c r="B18" s="33"/>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="E19" s="20"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="32"/>
+      <c r="B20" s="33"/>
       <c r="E20" s="20"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="32"/>
+      <c r="B21" s="33"/>
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="32"/>
+      <c r="B22" s="33"/>
       <c r="E22" s="20"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="32"/>
-      <c r="E23" s="25"/>
+      <c r="B23" s="33"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="32"/>
-      <c r="E24" s="25"/>
+      <c r="B24" s="33"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="32"/>
-      <c r="E25" s="25"/>
+      <c r="B25" s="33"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="32"/>
+      <c r="B26" s="33"/>
     </row>
     <row r="27" ht="25.5" customHeight="1" spans="2:2">
-      <c r="B27" s="32"/>
+      <c r="B27" s="33"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="32"/>
+      <c r="B28" s="33"/>
     </row>
     <row r="29" ht="17.25" customHeight="1" spans="2:2">
-      <c r="B29" s="32"/>
+      <c r="B29" s="33"/>
     </row>
     <row r="30" ht="21" customHeight="1" spans="2:2">
-      <c r="B30" s="32"/>
+      <c r="B30" s="33"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="32"/>
+      <c r="B31" s="33"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="32"/>
+      <c r="B32" s="33"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="32"/>
+      <c r="B33" s="33"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="32"/>
+      <c r="B34" s="33"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="32"/>
+      <c r="B35" s="33"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="32"/>
+      <c r="B36" s="33"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="32"/>
+      <c r="B37" s="33"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="32"/>
+      <c r="B38" s="33"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="32"/>
+      <c r="B39" s="33"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="32"/>
+      <c r="B40" s="33"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="32"/>
+      <c r="B41" s="33"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="32"/>
+      <c r="B42" s="33"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="32"/>
+      <c r="B43" s="33"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="32"/>
+      <c r="B44" s="33"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="32"/>
+      <c r="B45" s="33"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="32"/>
+      <c r="B46" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4047,17 +4056,17 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="23" customWidth="1"/>
-    <col min="2" max="2" width="66" style="23" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9" style="23" customWidth="1"/>
-    <col min="5" max="5" width="56.25" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="16.75" style="24" customWidth="1"/>
+    <col min="2" max="2" width="66" style="24" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9" style="24" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
@@ -4129,12 +4138,12 @@
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
       <c r="A7" s="10" t="s">
@@ -4155,133 +4164,133 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="20"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="14.25" spans="2:5">
-      <c r="B10" s="28"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="29"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" ht="14.25" spans="2:5">
-      <c r="B11" s="28"/>
-      <c r="E11" s="37"/>
+      <c r="B11" s="29"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" ht="14.25" spans="2:2">
-      <c r="B12" s="28"/>
+      <c r="B12" s="29"/>
     </row>
     <row r="13" ht="14.25" spans="2:5">
-      <c r="B13" s="28"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="29"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" ht="14.25" spans="2:5">
-      <c r="B14" s="28"/>
-      <c r="E14" s="24"/>
+      <c r="B14" s="29"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" ht="14.25" spans="2:5">
-      <c r="B15" s="28"/>
-      <c r="E15" s="24"/>
+      <c r="B15" s="29"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" ht="14.25" spans="2:5">
-      <c r="B16" s="28"/>
-      <c r="E16" s="24"/>
+      <c r="B16" s="29"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" ht="14.25" spans="2:5">
-      <c r="B17" s="28"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="29"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" ht="14.25" spans="2:5">
-      <c r="B18" s="28"/>
-      <c r="E18" s="24"/>
+      <c r="B18" s="29"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" ht="14.25" spans="2:5">
-      <c r="B19" s="28"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="29"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="14.25" spans="2:5">
-      <c r="B20" s="28"/>
-      <c r="E20" s="24"/>
+      <c r="B20" s="29"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" ht="14.25" spans="2:5">
-      <c r="B21" s="28"/>
-      <c r="E21" s="24"/>
+      <c r="B21" s="29"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" ht="14.25" spans="2:5">
-      <c r="B22" s="28"/>
-      <c r="E22" s="38"/>
+      <c r="B22" s="29"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B23" s="28"/>
-      <c r="E23" s="38"/>
+      <c r="B23" s="29"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" ht="14.25" spans="2:5">
-      <c r="B24" s="28"/>
-      <c r="E24" s="27"/>
+      <c r="B24" s="29"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" ht="17.25" customHeight="1" spans="2:2">
-      <c r="B25" s="28"/>
+      <c r="B25" s="29"/>
     </row>
     <row r="26" ht="21" customHeight="1" spans="2:2">
-      <c r="B26" s="28"/>
+      <c r="B26" s="29"/>
     </row>
     <row r="27" ht="14.25" spans="2:2">
-      <c r="B27" s="28"/>
+      <c r="B27" s="29"/>
     </row>
     <row r="28" ht="14.25" spans="2:2">
-      <c r="B28" s="28"/>
+      <c r="B28" s="29"/>
     </row>
     <row r="29" ht="14.25" spans="2:2">
-      <c r="B29" s="28"/>
+      <c r="B29" s="29"/>
     </row>
     <row r="30" ht="14.25" spans="2:2">
-      <c r="B30" s="28"/>
+      <c r="B30" s="29"/>
     </row>
     <row r="31" ht="14.25" spans="2:2">
-      <c r="B31" s="28"/>
+      <c r="B31" s="29"/>
     </row>
     <row r="32" ht="14.25" spans="2:2">
-      <c r="B32" s="28"/>
+      <c r="B32" s="29"/>
     </row>
     <row r="33" ht="14.25" spans="2:2">
-      <c r="B33" s="28"/>
+      <c r="B33" s="29"/>
     </row>
     <row r="34" ht="14.25" spans="2:2">
-      <c r="B34" s="28"/>
+      <c r="B34" s="29"/>
     </row>
     <row r="35" ht="14.25" spans="2:2">
-      <c r="B35" s="28"/>
+      <c r="B35" s="29"/>
     </row>
     <row r="36" ht="14.25" spans="2:2">
-      <c r="B36" s="28"/>
+      <c r="B36" s="29"/>
     </row>
     <row r="37" ht="14.25" spans="2:2">
-      <c r="B37" s="28"/>
+      <c r="B37" s="29"/>
     </row>
     <row r="38" ht="14.25" spans="2:2">
-      <c r="B38" s="28"/>
+      <c r="B38" s="29"/>
     </row>
     <row r="39" ht="14.25" spans="2:2">
-      <c r="B39" s="28"/>
+      <c r="B39" s="29"/>
     </row>
     <row r="40" ht="14.25" spans="2:2">
-      <c r="B40" s="28"/>
+      <c r="B40" s="29"/>
     </row>
     <row r="41" ht="14.25" spans="2:2">
-      <c r="B41" s="28"/>
+      <c r="B41" s="29"/>
     </row>
     <row r="42" ht="14.25" spans="2:2">
-      <c r="B42" s="28"/>
+      <c r="B42" s="29"/>
     </row>
     <row r="43" ht="14.25" spans="2:2">
-      <c r="B43" s="28"/>
+      <c r="B43" s="29"/>
     </row>
     <row r="44" ht="14.25" spans="2:2">
-      <c r="B44" s="28"/>
+      <c r="B44" s="29"/>
     </row>
     <row r="45" ht="14.25" spans="2:2">
-      <c r="B45" s="28"/>
+      <c r="B45" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4373,16 +4382,16 @@
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:5">
       <c r="A5" s="13"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="31" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4395,7 +4404,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" s="29" customFormat="1" ht="21" customHeight="1" spans="1:5">
+    <row r="7" s="30" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>38</v>
       </c>
@@ -4411,136 +4420,136 @@
       <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="20"/>
     </row>
     <row r="10" customHeight="1" spans="2:2">
-      <c r="B10" s="32"/>
+      <c r="B10" s="33"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="32"/>
+      <c r="B11" s="33"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="32"/>
+      <c r="B12" s="33"/>
       <c r="E12" s="20"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="32"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="32"/>
+      <c r="B14" s="33"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="32"/>
+      <c r="B15" s="33"/>
       <c r="E15" s="20"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="32"/>
+      <c r="B17" s="33"/>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="32"/>
+      <c r="B18" s="33"/>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="E19" s="20"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="32"/>
+      <c r="B20" s="33"/>
       <c r="E20" s="20"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="32"/>
+      <c r="B21" s="33"/>
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="32"/>
+      <c r="B22" s="33"/>
       <c r="E22" s="20"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="32"/>
+      <c r="B23" s="33"/>
       <c r="E23" s="20"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="32"/>
-      <c r="E24" s="25"/>
+      <c r="B24" s="33"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B25" s="32"/>
-      <c r="E25" s="25"/>
+      <c r="B25" s="33"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="32"/>
-      <c r="E26" s="25"/>
+      <c r="B26" s="33"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" ht="17.25" customHeight="1" spans="2:2">
-      <c r="B27" s="32"/>
+      <c r="B27" s="33"/>
     </row>
     <row r="28" ht="21" customHeight="1" spans="2:2">
-      <c r="B28" s="32"/>
+      <c r="B28" s="33"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="32"/>
+      <c r="B29" s="33"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="32"/>
+      <c r="B30" s="33"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="32"/>
+      <c r="B31" s="33"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="32"/>
+      <c r="B32" s="33"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="32"/>
+      <c r="B33" s="33"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="32"/>
+      <c r="B34" s="33"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="32"/>
+      <c r="B35" s="33"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="32"/>
+      <c r="B36" s="33"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="32"/>
+      <c r="B37" s="33"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="32"/>
+      <c r="B38" s="33"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="32"/>
+      <c r="B39" s="33"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="32"/>
+      <c r="B40" s="33"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="32"/>
+      <c r="B41" s="33"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="32"/>
+      <c r="B42" s="33"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="32"/>
+      <c r="B43" s="33"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="32"/>
+      <c r="B44" s="33"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="32"/>
+      <c r="B45" s="33"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="32"/>
+      <c r="B46" s="33"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="32"/>
+      <c r="B47" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4563,20 +4572,20 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="23" customWidth="1"/>
-    <col min="2" max="2" width="66" style="23" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9" style="23" customWidth="1"/>
-    <col min="5" max="5" width="56.25" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="16.75" style="24" customWidth="1"/>
+    <col min="2" max="2" width="66" style="24" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9" style="24" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
@@ -4715,131 +4724,140 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:5">
+      <c r="A14" s="13"/>
+      <c r="B14" s="21" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="24" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="23"/>
+      <c r="B15" s="21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="21" t="s">
+      <c r="E15" s="25" t="s">
         <v>50</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>58</v>
+      <c r="E19" s="28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="27" t="s">
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="21" t="s">
+      <c r="E21" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" ht="25.5" customHeight="1" spans="2:2">
-      <c r="B22" s="28"/>
-    </row>
-    <row r="23" ht="14.25" spans="2:2">
-      <c r="B23" s="28"/>
-    </row>
-    <row r="24" ht="17.25" customHeight="1" spans="2:2">
-      <c r="B24" s="28"/>
-    </row>
-    <row r="25" ht="21" customHeight="1" spans="2:2">
-      <c r="B25" s="28"/>
-    </row>
-    <row r="26" ht="14.25" spans="2:2">
-      <c r="B26" s="28"/>
+    <row r="22" spans="2:2">
+      <c r="B22" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" ht="25.5" customHeight="1" spans="2:2">
+      <c r="B23" s="29"/>
+    </row>
+    <row r="24" ht="14.25" spans="2:2">
+      <c r="B24" s="29"/>
+    </row>
+    <row r="25" ht="17.25" customHeight="1" spans="2:2">
+      <c r="B25" s="29"/>
+    </row>
+    <row r="26" ht="21" customHeight="1" spans="2:2">
+      <c r="B26" s="29"/>
     </row>
     <row r="27" ht="14.25" spans="2:2">
-      <c r="B27" s="28"/>
+      <c r="B27" s="29"/>
     </row>
     <row r="28" ht="14.25" spans="2:2">
-      <c r="B28" s="28"/>
+      <c r="B28" s="29"/>
     </row>
     <row r="29" ht="14.25" spans="2:2">
-      <c r="B29" s="28"/>
+      <c r="B29" s="29"/>
     </row>
     <row r="30" ht="14.25" spans="2:2">
-      <c r="B30" s="28"/>
+      <c r="B30" s="29"/>
     </row>
     <row r="31" ht="14.25" spans="2:2">
-      <c r="B31" s="28"/>
+      <c r="B31" s="29"/>
     </row>
     <row r="32" ht="14.25" spans="2:2">
-      <c r="B32" s="28"/>
+      <c r="B32" s="29"/>
     </row>
     <row r="33" ht="14.25" spans="2:2">
-      <c r="B33" s="28"/>
+      <c r="B33" s="29"/>
     </row>
     <row r="34" ht="14.25" spans="2:2">
-      <c r="B34" s="28"/>
+      <c r="B34" s="29"/>
     </row>
     <row r="35" ht="14.25" spans="2:2">
-      <c r="B35" s="28"/>
+      <c r="B35" s="29"/>
     </row>
     <row r="36" ht="14.25" spans="2:2">
-      <c r="B36" s="28"/>
+      <c r="B36" s="29"/>
     </row>
     <row r="37" ht="14.25" spans="2:2">
-      <c r="B37" s="28"/>
+      <c r="B37" s="29"/>
     </row>
     <row r="38" ht="14.25" spans="2:2">
-      <c r="B38" s="28"/>
+      <c r="B38" s="29"/>
     </row>
     <row r="39" ht="14.25" spans="2:2">
-      <c r="B39" s="28"/>
+      <c r="B39" s="29"/>
     </row>
     <row r="40" ht="14.25" spans="2:2">
-      <c r="B40" s="28"/>
+      <c r="B40" s="29"/>
     </row>
     <row r="41" ht="14.25" spans="2:2">
-      <c r="B41" s="28"/>
+      <c r="B41" s="29"/>
+    </row>
+    <row r="42" ht="14.25" spans="2:2">
+      <c r="B42" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4849,7 +4867,7 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A6:A15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.120/api/catalog_mgr/catalog?id=120161026154006002" tooltip="http://192.168.1.120/api/catalog_mgr/catalog?id=120161026154006002"/>
@@ -4863,10 +4881,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -4884,7 +4902,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -4903,7 +4921,7 @@
     </row>
     <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>41</v>
@@ -4932,7 +4950,7 @@
     <row r="5" ht="21" customHeight="1" spans="1:5">
       <c r="A5" s="13"/>
       <c r="B5" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -4969,449 +4987,456 @@
     <row r="10" ht="13.5" spans="1:2">
       <c r="A10" s="13"/>
       <c r="B10" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13"/>
       <c r="B11" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="13"/>
       <c r="B12" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13"/>
       <c r="B13" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" ht="13.5" spans="1:5">
+    <row r="14" spans="1:5">
       <c r="A14" s="22"/>
       <c r="B14" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="2:5">
+        <v>70</v>
+      </c>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="23"/>
       <c r="B15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="20"/>
+        <v>71</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" ht="25.5" customHeight="1" spans="2:5">
+        <v>75</v>
+      </c>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="2:5">
+        <v>76</v>
+      </c>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" ht="25.5" customHeight="1" spans="2:5">
       <c r="B21" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" ht="17.25" customHeight="1" spans="2:2">
+        <v>77</v>
+      </c>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" ht="21" customHeight="1" spans="2:2">
+        <v>78</v>
+      </c>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" ht="17.25" customHeight="1" spans="2:2">
       <c r="B23" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" ht="21" customHeight="1" spans="2:2">
       <c r="B24" s="21" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="21" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="21" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="21" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="21" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="21" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="21" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="21" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="21" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="21" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="21" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="21" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="21" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="21" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="21" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="21" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="21" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="21" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="21" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="21" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="21" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="21" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="21" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="21" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="21" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="21" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5423,7 +5448,7 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A6:A15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.120/api/catalog_mgr/catalog" tooltip="http://192.168.1.120/api/catalog_mgr/catalog"/>

--- a/接口文档/商品api/类目接口_运营端.xlsx
+++ b/接口文档/商品api/类目接口_运营端.xlsx
@@ -104,7 +104,7 @@
     <t>请求示例：</t>
   </si>
   <si>
-    <t>[{"name":"手机通a","pid":"-1","sort":"1","img_url":"http://img1"},{"name":"手机通b","pid":"-1","sort":"2",,"img_url":"http://img1"}]</t>
+    <t>[{"name":"手机通a","pid":"-1","sort":"1","imgUrl":"http://img1"},{"name":"手机通b","pid":"-1","sort":"2",,"imgUrl":"http://img1"}]</t>
   </si>
   <si>
     <t>响应参数：</t>
@@ -123,7 +123,7 @@
     <t>http://192.168.1.120/api/catalog_mgr/catalog/edit</t>
   </si>
   <si>
-    <t>[{"id":"1","name":"手机通a","sort":"1","img_url"},{"id":"2","name":"手机通b","sort":"2","img_url"}]</t>
+    <t>[{"id":"1","name":"手机通a","sort":"1","imgUrl"},{"id":"2","name":"手机通b","sort":"2","imgUrl"}]</t>
   </si>
   <si>
     <t xml:space="preserve">批量删除类目接口
@@ -259,7 +259,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">    "img_url":"http://img",</t>
+    <t xml:space="preserve">    "imgUrl":"http://img",</t>
   </si>
   <si>
     <r>
@@ -800,7 +800,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">        "img_url":"http://img",</t>
+    <t xml:space="preserve">        "imgUrl":"http://img",</t>
   </si>
   <si>
     <r>
@@ -2197,10 +2197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -2270,7 +2270,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2283,6 +2337,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2298,38 +2353,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2340,33 +2369,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2374,15 +2385,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2395,12 +2398,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2410,11 +2410,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2460,7 +2460,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2472,7 +2556,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2484,13 +2598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2502,55 +2616,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2562,79 +2634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2777,17 +2777,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2807,15 +2818,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2831,17 +2833,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2854,17 +2865,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2873,10 +2873,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2885,16 +2885,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2907,122 +2907,122 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3088,9 +3088,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3505,186 +3502,186 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="7:14">
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
     </row>
     <row r="8" spans="7:14">
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
     </row>
     <row r="9" spans="7:14">
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
     </row>
     <row r="10" spans="7:14">
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
     </row>
     <row r="11" spans="7:14">
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
     </row>
     <row r="12" spans="7:14">
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
     </row>
     <row r="13" spans="7:14">
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
     </row>
     <row r="14" spans="7:14">
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
     </row>
     <row r="15" spans="7:14">
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
     </row>
     <row r="16" spans="7:14">
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="7:14">
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
     </row>
     <row r="18" spans="7:14">
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
     </row>
     <row r="19" spans="7:14">
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
     </row>
     <row r="20" spans="7:14">
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" spans="7:14">
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
     </row>
     <row r="22" spans="7:14">
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
     </row>
     <row r="23" spans="7:14">
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
     </row>
     <row r="24" spans="7:14">
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3711,50 +3708,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40">
+      <c r="A2" s="39">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="40">
+      <c r="A3" s="39">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="40">
+      <c r="A4" s="39">
         <v>3</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="40">
+      <c r="A5" s="39">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="40">
+      <c r="A6" s="39">
         <v>5</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3777,7 +3774,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -3856,7 +3853,7 @@
       </c>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:5">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -3874,12 +3871,12 @@
       <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" ht="17.1" customHeight="1" spans="1:5">
       <c r="A8" s="10" t="s">
@@ -3911,124 +3908,124 @@
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="13"/>
-      <c r="B12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="32"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="13"/>
-      <c r="B13" s="33"/>
+      <c r="B13" s="32"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="23"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="32"/>
       <c r="E14" s="20"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="33"/>
+      <c r="B15" s="32"/>
       <c r="E15" s="20"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="33"/>
+      <c r="B16" s="32"/>
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="33"/>
+      <c r="B17" s="32"/>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="33"/>
+      <c r="B18" s="32"/>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="33"/>
+      <c r="B19" s="32"/>
       <c r="E19" s="20"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="33"/>
+      <c r="B20" s="32"/>
       <c r="E20" s="20"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="33"/>
+      <c r="B21" s="32"/>
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="33"/>
+      <c r="B22" s="32"/>
       <c r="E22" s="20"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="33"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="32"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="33"/>
-      <c r="E24" s="26"/>
+      <c r="B24" s="32"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="33"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="32"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="33"/>
+      <c r="B26" s="32"/>
     </row>
     <row r="27" ht="25.5" customHeight="1" spans="2:2">
-      <c r="B27" s="33"/>
+      <c r="B27" s="32"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="33"/>
+      <c r="B28" s="32"/>
     </row>
     <row r="29" ht="17.25" customHeight="1" spans="2:2">
-      <c r="B29" s="33"/>
+      <c r="B29" s="32"/>
     </row>
     <row r="30" ht="21" customHeight="1" spans="2:2">
-      <c r="B30" s="33"/>
+      <c r="B30" s="32"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="33"/>
+      <c r="B31" s="32"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="33"/>
+      <c r="B32" s="32"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="33"/>
+      <c r="B33" s="32"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="33"/>
+      <c r="B34" s="32"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="33"/>
+      <c r="B35" s="32"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="33"/>
+      <c r="B36" s="32"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="33"/>
+      <c r="B37" s="32"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="33"/>
+      <c r="B38" s="32"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="33"/>
+      <c r="B39" s="32"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="33"/>
+      <c r="B40" s="32"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="33"/>
+      <c r="B41" s="32"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="33"/>
+      <c r="B42" s="32"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="33"/>
+      <c r="B43" s="32"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="33"/>
+      <c r="B44" s="32"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="33"/>
+      <c r="B45" s="32"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="33"/>
+      <c r="B46" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4056,17 +4053,17 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="24" customWidth="1"/>
-    <col min="2" max="2" width="66" style="24" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9" style="24" customWidth="1"/>
-    <col min="5" max="5" width="56.25" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="16.75" style="23" customWidth="1"/>
+    <col min="2" max="2" width="66" style="23" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9" style="23" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
@@ -4138,12 +4135,12 @@
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
       <c r="A7" s="10" t="s">
@@ -4164,133 +4161,133 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="20"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="14.25" spans="2:5">
-      <c r="B10" s="29"/>
-      <c r="E10" s="25"/>
+      <c r="B10" s="28"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" ht="14.25" spans="2:5">
-      <c r="B11" s="29"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="28"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" ht="14.25" spans="2:2">
-      <c r="B12" s="29"/>
+      <c r="B12" s="28"/>
     </row>
     <row r="13" ht="14.25" spans="2:5">
-      <c r="B13" s="29"/>
-      <c r="E13" s="25"/>
+      <c r="B13" s="28"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" ht="14.25" spans="2:5">
-      <c r="B14" s="29"/>
-      <c r="E14" s="25"/>
+      <c r="B14" s="28"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" ht="14.25" spans="2:5">
-      <c r="B15" s="29"/>
-      <c r="E15" s="25"/>
+      <c r="B15" s="28"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" ht="14.25" spans="2:5">
-      <c r="B16" s="29"/>
-      <c r="E16" s="25"/>
+      <c r="B16" s="28"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" ht="14.25" spans="2:5">
-      <c r="B17" s="29"/>
-      <c r="E17" s="25"/>
+      <c r="B17" s="28"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" ht="14.25" spans="2:5">
-      <c r="B18" s="29"/>
-      <c r="E18" s="25"/>
+      <c r="B18" s="28"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" ht="14.25" spans="2:5">
-      <c r="B19" s="29"/>
-      <c r="E19" s="25"/>
+      <c r="B19" s="28"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" ht="14.25" spans="2:5">
-      <c r="B20" s="29"/>
-      <c r="E20" s="25"/>
+      <c r="B20" s="28"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" ht="14.25" spans="2:5">
-      <c r="B21" s="29"/>
-      <c r="E21" s="25"/>
+      <c r="B21" s="28"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" ht="14.25" spans="2:5">
-      <c r="B22" s="29"/>
-      <c r="E22" s="39"/>
+      <c r="B22" s="28"/>
+      <c r="E22" s="38"/>
     </row>
     <row r="23" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B23" s="29"/>
-      <c r="E23" s="39"/>
+      <c r="B23" s="28"/>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" ht="14.25" spans="2:5">
-      <c r="B24" s="29"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" ht="17.25" customHeight="1" spans="2:2">
-      <c r="B25" s="29"/>
+      <c r="B25" s="28"/>
     </row>
     <row r="26" ht="21" customHeight="1" spans="2:2">
-      <c r="B26" s="29"/>
+      <c r="B26" s="28"/>
     </row>
     <row r="27" ht="14.25" spans="2:2">
-      <c r="B27" s="29"/>
+      <c r="B27" s="28"/>
     </row>
     <row r="28" ht="14.25" spans="2:2">
-      <c r="B28" s="29"/>
+      <c r="B28" s="28"/>
     </row>
     <row r="29" ht="14.25" spans="2:2">
-      <c r="B29" s="29"/>
+      <c r="B29" s="28"/>
     </row>
     <row r="30" ht="14.25" spans="2:2">
-      <c r="B30" s="29"/>
+      <c r="B30" s="28"/>
     </row>
     <row r="31" ht="14.25" spans="2:2">
-      <c r="B31" s="29"/>
+      <c r="B31" s="28"/>
     </row>
     <row r="32" ht="14.25" spans="2:2">
-      <c r="B32" s="29"/>
+      <c r="B32" s="28"/>
     </row>
     <row r="33" ht="14.25" spans="2:2">
-      <c r="B33" s="29"/>
+      <c r="B33" s="28"/>
     </row>
     <row r="34" ht="14.25" spans="2:2">
-      <c r="B34" s="29"/>
+      <c r="B34" s="28"/>
     </row>
     <row r="35" ht="14.25" spans="2:2">
-      <c r="B35" s="29"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" ht="14.25" spans="2:2">
-      <c r="B36" s="29"/>
+      <c r="B36" s="28"/>
     </row>
     <row r="37" ht="14.25" spans="2:2">
-      <c r="B37" s="29"/>
+      <c r="B37" s="28"/>
     </row>
     <row r="38" ht="14.25" spans="2:2">
-      <c r="B38" s="29"/>
+      <c r="B38" s="28"/>
     </row>
     <row r="39" ht="14.25" spans="2:2">
-      <c r="B39" s="29"/>
+      <c r="B39" s="28"/>
     </row>
     <row r="40" ht="14.25" spans="2:2">
-      <c r="B40" s="29"/>
+      <c r="B40" s="28"/>
     </row>
     <row r="41" ht="14.25" spans="2:2">
-      <c r="B41" s="29"/>
+      <c r="B41" s="28"/>
     </row>
     <row r="42" ht="14.25" spans="2:2">
-      <c r="B42" s="29"/>
+      <c r="B42" s="28"/>
     </row>
     <row r="43" ht="14.25" spans="2:2">
-      <c r="B43" s="29"/>
+      <c r="B43" s="28"/>
     </row>
     <row r="44" ht="14.25" spans="2:2">
-      <c r="B44" s="29"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" ht="14.25" spans="2:2">
-      <c r="B45" s="29"/>
+      <c r="B45" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4382,16 +4379,16 @@
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:5">
       <c r="A5" s="13"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4404,7 +4401,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" s="30" customFormat="1" ht="21" customHeight="1" spans="1:5">
+    <row r="7" s="29" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>38</v>
       </c>
@@ -4420,136 +4417,136 @@
       <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="20"/>
     </row>
     <row r="10" customHeight="1" spans="2:2">
-      <c r="B10" s="33"/>
+      <c r="B10" s="32"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="33"/>
+      <c r="B11" s="32"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="33"/>
+      <c r="B12" s="32"/>
       <c r="E12" s="20"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="32"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="33"/>
+      <c r="B14" s="32"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="33"/>
+      <c r="B15" s="32"/>
       <c r="E15" s="20"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="33"/>
+      <c r="B16" s="32"/>
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="33"/>
+      <c r="B17" s="32"/>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="33"/>
+      <c r="B18" s="32"/>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="33"/>
+      <c r="B19" s="32"/>
       <c r="E19" s="20"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="33"/>
+      <c r="B20" s="32"/>
       <c r="E20" s="20"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="33"/>
+      <c r="B21" s="32"/>
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="33"/>
+      <c r="B22" s="32"/>
       <c r="E22" s="20"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="33"/>
+      <c r="B23" s="32"/>
       <c r="E23" s="20"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="33"/>
-      <c r="E24" s="26"/>
+      <c r="B24" s="32"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B25" s="33"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="32"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="33"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="32"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" ht="17.25" customHeight="1" spans="2:2">
-      <c r="B27" s="33"/>
+      <c r="B27" s="32"/>
     </row>
     <row r="28" ht="21" customHeight="1" spans="2:2">
-      <c r="B28" s="33"/>
+      <c r="B28" s="32"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="33"/>
+      <c r="B29" s="32"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="33"/>
+      <c r="B30" s="32"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="33"/>
+      <c r="B31" s="32"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="33"/>
+      <c r="B32" s="32"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="33"/>
+      <c r="B33" s="32"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="33"/>
+      <c r="B34" s="32"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="33"/>
+      <c r="B35" s="32"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="33"/>
+      <c r="B36" s="32"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="33"/>
+      <c r="B37" s="32"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="33"/>
+      <c r="B38" s="32"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="33"/>
+      <c r="B39" s="32"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="33"/>
+      <c r="B40" s="32"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="33"/>
+      <c r="B41" s="32"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="33"/>
+      <c r="B42" s="32"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="33"/>
+      <c r="B43" s="32"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="33"/>
+      <c r="B44" s="32"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="33"/>
+      <c r="B45" s="32"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="33"/>
+      <c r="B46" s="32"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="33"/>
+      <c r="B47" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4580,12 +4577,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="24" customWidth="1"/>
-    <col min="2" max="2" width="66" style="24" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9" style="24" customWidth="1"/>
-    <col min="5" max="5" width="56.25" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="16.75" style="23" customWidth="1"/>
+    <col min="2" max="2" width="66" style="23" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9" style="23" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
@@ -4738,11 +4735,11 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4750,7 +4747,7 @@
       <c r="B16" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4758,7 +4755,7 @@
       <c r="B17" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="24" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4766,7 +4763,7 @@
       <c r="B18" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4774,7 +4771,7 @@
       <c r="B19" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="27" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4782,7 +4779,7 @@
       <c r="B20" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="27" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4790,7 +4787,7 @@
       <c r="B21" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="27" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4800,64 +4797,64 @@
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1" spans="2:2">
-      <c r="B23" s="29"/>
+      <c r="B23" s="28"/>
     </row>
     <row r="24" ht="14.25" spans="2:2">
-      <c r="B24" s="29"/>
+      <c r="B24" s="28"/>
     </row>
     <row r="25" ht="17.25" customHeight="1" spans="2:2">
-      <c r="B25" s="29"/>
+      <c r="B25" s="28"/>
     </row>
     <row r="26" ht="21" customHeight="1" spans="2:2">
-      <c r="B26" s="29"/>
+      <c r="B26" s="28"/>
     </row>
     <row r="27" ht="14.25" spans="2:2">
-      <c r="B27" s="29"/>
+      <c r="B27" s="28"/>
     </row>
     <row r="28" ht="14.25" spans="2:2">
-      <c r="B28" s="29"/>
+      <c r="B28" s="28"/>
     </row>
     <row r="29" ht="14.25" spans="2:2">
-      <c r="B29" s="29"/>
+      <c r="B29" s="28"/>
     </row>
     <row r="30" ht="14.25" spans="2:2">
-      <c r="B30" s="29"/>
+      <c r="B30" s="28"/>
     </row>
     <row r="31" ht="14.25" spans="2:2">
-      <c r="B31" s="29"/>
+      <c r="B31" s="28"/>
     </row>
     <row r="32" ht="14.25" spans="2:2">
-      <c r="B32" s="29"/>
+      <c r="B32" s="28"/>
     </row>
     <row r="33" ht="14.25" spans="2:2">
-      <c r="B33" s="29"/>
+      <c r="B33" s="28"/>
     </row>
     <row r="34" ht="14.25" spans="2:2">
-      <c r="B34" s="29"/>
+      <c r="B34" s="28"/>
     </row>
     <row r="35" ht="14.25" spans="2:2">
-      <c r="B35" s="29"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" ht="14.25" spans="2:2">
-      <c r="B36" s="29"/>
+      <c r="B36" s="28"/>
     </row>
     <row r="37" ht="14.25" spans="2:2">
-      <c r="B37" s="29"/>
+      <c r="B37" s="28"/>
     </row>
     <row r="38" ht="14.25" spans="2:2">
-      <c r="B38" s="29"/>
+      <c r="B38" s="28"/>
     </row>
     <row r="39" ht="14.25" spans="2:2">
-      <c r="B39" s="29"/>
+      <c r="B39" s="28"/>
     </row>
     <row r="40" ht="14.25" spans="2:2">
-      <c r="B40" s="29"/>
+      <c r="B40" s="28"/>
     </row>
     <row r="41" ht="14.25" spans="2:2">
-      <c r="B41" s="29"/>
+      <c r="B41" s="28"/>
     </row>
     <row r="42" ht="14.25" spans="2:2">
-      <c r="B42" s="29"/>
+      <c r="B42" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4883,8 +4880,8 @@
   <sheetPr/>
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -5012,20 +5009,20 @@
       <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="22"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="21" t="s">
         <v>70</v>
       </c>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="23"/>
+    <row r="15" ht="13.5" spans="1:5">
+      <c r="A15" s="22"/>
       <c r="B15" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="21" t="s">
@@ -5055,19 +5052,19 @@
       <c r="B20" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="26"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" ht="25.5" customHeight="1" spans="2:5">
       <c r="B21" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="26"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="26"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="2:2">
       <c r="B23" s="21" t="s">

--- a/接口文档/商品api/类目接口_运营端.xlsx
+++ b/接口文档/商品api/类目接口_运营端.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" activeTab="6"/>
+    <workbookView windowWidth="21495" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -2197,10 +2197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -2269,6 +2269,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2276,8 +2300,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2292,10 +2383,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2306,9 +2395,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2316,95 +2404,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2460,7 +2460,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2472,169 +2628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2777,17 +2777,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2818,16 +2818,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2843,25 +2852,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2873,10 +2873,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2885,16 +2885,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2904,116 +2904,116 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -3773,8 +3773,8 @@
   <sheetPr/>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -4039,7 +4039,7 @@
     <mergeCell ref="A8:A14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.120/api/catalog_mgr/catalog"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.120/api/catalog_mgr/catalog" tooltip="http://192.168.1.120/api/catalog_mgr/catalog"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -4880,7 +4880,7 @@
   <sheetPr/>
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
